--- a/22_TeoKaiXiang_Lab08.xlsx
+++ b/22_TeoKaiXiang_Lab08.xlsx
@@ -143,9 +143,6 @@
     <t>Vertical movement successfully implemented</t>
   </si>
   <si>
-    <t>Ensure game win</t>
-  </si>
-  <si>
     <t>Up &amp; Down till score reaches 30</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Game win scene implemented</t>
+  </si>
+  <si>
+    <t>Ensure game win condition</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -838,16 +838,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="E10" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>8</v>
@@ -861,16 +861,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>8</v>
